--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4588.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4588.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Andile Lucky Phehlukwayo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>25/09/2016</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3935</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>30/09/2016</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3940</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3942</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3945</t>
+          <t>3945</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -692,7 +755,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>08/10/2016</t>
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3947</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3950</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -792,7 +854,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>28/01/2017</t>
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3983</t>
+          <t>3983</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -840,7 +901,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>01/02/2017</t>
@@ -848,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3985</t>
+          <t>3985</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -888,7 +948,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>04/02/2017</t>
@@ -896,7 +955,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3987</t>
+          <t>3987</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -936,7 +995,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>10/02/2017</t>
@@ -944,7 +1002,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3990</t>
+          <t>3990</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -996,7 +1054,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3992</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1048,7 +1106,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1140,7 +1198,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>04/03/2017</t>
@@ -1148,7 +1205,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1240,7 +1297,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>27/05/2017</t>
@@ -1248,7 +1304,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4042</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1340,7 +1396,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>15/10/2017</t>
@@ -1348,7 +1403,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1400,7 +1455,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4086</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1504,7 +1559,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1556,7 +1611,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4128</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1608,7 +1663,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4130</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1660,7 +1715,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4133</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1712,7 +1767,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4135</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1752,7 +1807,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>29/07/2018</t>
@@ -1760,7 +1814,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4182</t>
+          <t>4182</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1812,7 +1866,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4183</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1864,7 +1918,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4186</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1916,7 +1970,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4187</t>
+          <t>4187</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1968,7 +2022,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4188</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2008,7 +2062,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>30/09/2018</t>
@@ -2016,7 +2069,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4206</t>
+          <t>4206</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2068,7 +2121,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4207</t>
+          <t>4207</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2120,7 +2173,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4208</t>
+          <t>4208</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2160,7 +2213,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>04/11/2018</t>
@@ -2168,7 +2220,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4222</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2208,7 +2260,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>19/01/2019</t>
@@ -2216,7 +2267,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2268,7 +2319,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4238</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2308,7 +2359,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>25/01/2019</t>
@@ -2316,7 +2366,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2368,7 +2418,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2408,7 +2458,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>30/01/2019</t>
@@ -2416,7 +2465,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2468,7 +2517,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4264</t>
+          <t>4264</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2520,7 +2569,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4269</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2560,7 +2609,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>13/03/2019</t>
@@ -2568,7 +2616,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4271</t>
+          <t>4271</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2608,7 +2656,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>16/03/2019</t>
@@ -2616,7 +2663,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4272</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2668,7 +2715,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2720,7 +2767,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2772,7 +2819,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2812,7 +2859,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -2820,7 +2866,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4317</t>
+          <t>4317</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2872,7 +2918,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4323</t>
+          <t>4323</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2924,7 +2970,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4328</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2976,7 +3022,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3016,7 +3062,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>28/06/2019</t>
@@ -3024,7 +3069,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4339</t>
+          <t>4339</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3076,7 +3121,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3116,7 +3161,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>04/02/2020</t>
@@ -3124,7 +3168,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3164,7 +3208,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -3172,7 +3215,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4405</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3224,7 +3267,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4408</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3276,7 +3319,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3316,7 +3359,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -3324,7 +3366,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3364,7 +3406,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>07/03/2020</t>
@@ -3372,7 +3413,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3424,7 +3465,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4458</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3476,7 +3517,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4459</t>
+          <t>4459</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3528,7 +3569,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4460</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3568,7 +3609,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -3576,7 +3616,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4474</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3628,7 +3668,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3680,7 +3720,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3732,7 +3772,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4487</t>
+          <t>4487</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3784,7 +3824,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4488</t>
+          <t>4488</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3836,7 +3876,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4491</t>
+          <t>4491</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3888,7 +3928,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4517</t>
+          <t>4517</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3928,7 +3968,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>19/01/2022</t>
@@ -3936,7 +3975,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3976,7 +4015,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>21/01/2022</t>
@@ -3984,7 +4022,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4036,7 +4074,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4088,7 +4126,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4140,7 +4178,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4192,7 +4230,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4658</t>
+          <t>4658</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4231,7 +4269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4253,7 +4291,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4290,7 +4328,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3935</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4327,7 +4365,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3940</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4364,7 +4402,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3942</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4401,7 +4439,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3945</t>
+          <t>3945</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4438,7 +4476,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3947</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4475,7 +4513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3950</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4512,7 +4550,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3983</t>
+          <t>3983</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4549,7 +4587,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3985</t>
+          <t>3985</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4586,7 +4624,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3987</t>
+          <t>3987</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4623,7 +4661,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3990</t>
+          <t>3990</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4660,7 +4698,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3992</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4697,7 +4735,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4734,7 +4772,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4771,7 +4809,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4808,7 +4846,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4845,7 +4883,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4882,7 +4920,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4042</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4919,7 +4957,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4956,7 +4994,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4993,7 +5031,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4086</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5030,7 +5068,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5067,7 +5105,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4128</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5104,7 +5142,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4130</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5141,7 +5179,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4133</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5178,7 +5216,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4135</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5215,7 +5253,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4182</t>
+          <t>4182</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5252,7 +5290,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4183</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5289,7 +5327,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4186</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5326,7 +5364,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4187</t>
+          <t>4187</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5363,7 +5401,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4188</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5400,7 +5438,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4206</t>
+          <t>4206</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5437,7 +5475,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4207</t>
+          <t>4207</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5474,7 +5512,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4208</t>
+          <t>4208</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5511,7 +5549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4222</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5548,7 +5586,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5585,7 +5623,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4238</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5622,7 +5660,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5659,7 +5697,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5696,7 +5734,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5733,7 +5771,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4269</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5770,7 +5808,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4271</t>
+          <t>4271</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5807,7 +5845,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4272</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5844,7 +5882,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5881,7 +5919,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5918,7 +5956,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5955,7 +5993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4323</t>
+          <t>4323</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5992,7 +6030,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4328</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6029,7 +6067,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6066,7 +6104,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4339</t>
+          <t>4339</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6103,7 +6141,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6140,7 +6178,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6177,7 +6215,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4408</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6214,7 +6252,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6251,7 +6289,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6288,7 +6326,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6325,7 +6363,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4458</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6362,7 +6400,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4459</t>
+          <t>4459</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6399,7 +6437,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4460</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6436,7 +6474,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4474</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6473,7 +6511,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6510,7 +6548,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6547,7 +6585,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4487</t>
+          <t>4487</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6584,7 +6622,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4488</t>
+          <t>4488</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6621,7 +6659,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4491</t>
+          <t>4491</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6658,7 +6696,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6695,7 +6733,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6732,7 +6770,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6769,7 +6807,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6806,7 +6844,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6832,6 +6870,529 @@
       <c r="G70" t="inlineStr">
         <is>
           <t>0/17</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4408</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10.62%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.88%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>18.49%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.81%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4487</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.41%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4491</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>13.60%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4517</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.39%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.72%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5.05%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4588.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4588.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6930,10 +6931,6 @@
           <t>4408</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6959,7 +6956,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6972,429 +6968,698 @@
           <t>4419</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10.62%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.88%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>18.49%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.81%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4487</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.41%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4491</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>13.60%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4517</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.39%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.72%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5.05%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4401</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4408</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4421</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>10.62%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.88%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4460</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>18.49%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.81%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4478</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4487</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.75%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4488</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.41%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4491</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+          <t>4487</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>13.60%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4517</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>4491</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4529</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.39%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.72%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4658</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5.05%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4588.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4588.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3622,7 +3621,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6931,6 +6930,10 @@
           <t>4408</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6956,6 +6959,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6968,6 +6972,10 @@
           <t>4419</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6980,6 +6988,10 @@
           <t>4421</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7082,6 +7094,10 @@
           <t>4474</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7124,6 +7140,10 @@
           <t>4478</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7226,6 +7246,10 @@
           <t>4517</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7238,6 +7262,10 @@
           <t>4524</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7253,6 +7281,9 @@
       <c r="B17" t="n">
         <v>7</v>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7325,6 +7356,10 @@
           <t>4619</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7360,306 +7395,6 @@
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4351</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4401</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4408</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4415</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4419</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4421</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4460</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4487</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4488</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4491</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4529</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4588.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4588.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>25/09/2016</t>
@@ -604,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>30/09/2016</t>
@@ -755,6 +756,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>08/10/2016</t>
@@ -854,6 +856,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>28/01/2017</t>
@@ -901,6 +904,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>01/02/2017</t>
@@ -948,6 +952,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>04/02/2017</t>
@@ -995,6 +1000,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>10/02/2017</t>
@@ -1198,6 +1204,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>04/03/2017</t>
@@ -1297,6 +1304,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>27/05/2017</t>
@@ -1396,6 +1404,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>15/10/2017</t>
@@ -1807,6 +1816,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>29/07/2018</t>
@@ -2062,6 +2072,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>30/09/2018</t>
@@ -2213,6 +2224,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>04/11/2018</t>
@@ -2260,6 +2272,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>19/01/2019</t>
@@ -2359,6 +2372,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>25/01/2019</t>
@@ -2458,6 +2472,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>30/01/2019</t>
@@ -2609,6 +2624,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>13/03/2019</t>
@@ -2656,6 +2672,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>16/03/2019</t>
@@ -2859,6 +2876,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -3062,6 +3080,7 @@
           <t>51</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>28/06/2019</t>
@@ -3161,6 +3180,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>04/02/2020</t>
@@ -3208,6 +3228,7 @@
           <t>54</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -3359,6 +3380,7 @@
           <t>57</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -3406,6 +3428,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>07/03/2020</t>
@@ -3609,6 +3632,7 @@
           <t>62</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -3968,6 +3992,7 @@
           <t>69</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>19/01/2022</t>
@@ -4015,6 +4040,7 @@
           <t>70</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>21/01/2022</t>
@@ -6876,527 +6902,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4408</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4415</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4419</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4421</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>10.62%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.88%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4460</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>18.49%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.81%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4487</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.75%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4488</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.41%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4491</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>13.60%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4517</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4529</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.39%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.72%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4658</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5.05%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>